--- a/struct/WingData.xlsx
+++ b/struct/WingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanika Dodhia\Documents\University\Fifth Year\Group Project\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{11A4F54A-B987-4996-B6EA-4718F3CC28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F31EFDC-505C-4AC2-B50A-F9FD4D8FAD16}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{11A4F54A-B987-4996-B6EA-4718F3CC28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A786AB-D200-4D75-A1F8-AABEAC4A65A4}"/>
   <bookViews>
     <workbookView xWindow="4370" yWindow="810" windowWidth="14400" windowHeight="7270" xr2:uid="{7D12F7EF-7898-4DF0-A7D1-8BE1FE745624}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Half Span</t>
   </si>
@@ -53,7 +53,10 @@
     <t>Deflection</t>
   </si>
   <si>
-    <t>Stress</t>
+    <t>CompressiveStress</t>
+  </si>
+  <si>
+    <t>TensileStress</t>
   </si>
   <si>
     <t>Ix</t>
@@ -63,6 +66,15 @@
   </si>
   <si>
     <t>Iz</t>
+  </si>
+  <si>
+    <t>Ixy</t>
+  </si>
+  <si>
+    <t>Iyz</t>
+  </si>
+  <si>
+    <t>Ixz</t>
   </si>
 </sst>
 </file>
@@ -100,7 +112,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,20 +427,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C728624-B5C9-47B1-9105-21FA925C8C78}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +470,20 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>40</v>
       </c>
@@ -465,37 +491,52 @@
         <v>12.6</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C4" si="0">8.4</f>
+        <f t="shared" ref="C2:C7" si="0">8.4</f>
         <v>8.4</v>
       </c>
       <c r="D2">
-        <f>0.457798*9.81*1000</f>
-        <v>4490.99838</v>
+        <f>1811*2</f>
+        <v>3622</v>
       </c>
       <c r="E2">
-        <f>0.02056</f>
-        <v>2.0559999999999998E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <f>1014000000</f>
-        <v>1014000000</v>
+        <v>2.097</v>
+      </c>
+      <c r="F2">
+        <f>1.818*10^7</f>
+        <v>18180000</v>
       </c>
       <c r="G2">
-        <f>0.0101817</f>
-        <v>1.01817E-2</v>
-      </c>
-      <c r="H2">
-        <f>0.0120581</f>
-        <v>1.20581E-2</v>
+        <f>3.008*10^8</f>
+        <v>300800000</v>
+      </c>
+      <c r="H2" s="1">
+        <f>2420160</f>
+        <v>2420160</v>
       </c>
       <c r="I2">
-        <f>0.0120581</f>
-        <v>1.20581E-2</v>
+        <f>2589780</f>
+        <v>2589780</v>
+      </c>
+      <c r="J2">
+        <f>177178</f>
+        <v>177178</v>
+      </c>
+      <c r="K2">
+        <f>34.3927</f>
+        <v>34.392699999999998</v>
+      </c>
+      <c r="L2">
+        <f>-639.485</f>
+        <v>-639.48500000000001</v>
+      </c>
+      <c r="M2">
+        <f>129704</f>
+        <v>129704</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>12.6</v>
@@ -505,30 +546,47 @@
         <v>8.4</v>
       </c>
       <c r="D3">
-        <f>0.439452*9.81*1000</f>
-        <v>4311.02412</v>
+        <f>1676*2</f>
+        <v>3352</v>
       </c>
       <c r="E3">
-        <f>0.01819</f>
-        <v>1.8190000000000001E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <f>1.121*10^9</f>
-        <v>1121000000</v>
+        <v>1.581</v>
+      </c>
+      <c r="F3">
+        <f>1.54*10^7</f>
+        <v>15400000</v>
       </c>
       <c r="G3">
-        <v>9.0050300000000007E-3</v>
-      </c>
-      <c r="H3">
-        <v>1.8062999999999999E-2</v>
+        <f>2.689*10^8</f>
+        <v>268900000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1919140</v>
       </c>
       <c r="I3">
-        <v>1.8863899999999999E-3</v>
+        <f xml:space="preserve"> 2076080</f>
+        <v>2076080</v>
+      </c>
+      <c r="J3">
+        <f xml:space="preserve"> 163938</f>
+        <v>163938</v>
+      </c>
+      <c r="K3">
+        <f>31.8494</f>
+        <v>31.849399999999999</v>
+      </c>
+      <c r="L3">
+        <f>-548.076</f>
+        <v>-548.07600000000002</v>
+      </c>
+      <c r="M3">
+        <f>111080</f>
+        <v>111080</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="A4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>12.6</v>
@@ -538,127 +596,196 @@
         <v>8.4</v>
       </c>
       <c r="D4">
-        <f>0.421984*9.81*1000</f>
-        <v>4139.6630400000004</v>
+        <f>1586*2</f>
+        <v>3172</v>
       </c>
       <c r="E4">
-        <f>0.01614</f>
-        <v>1.6140000000000002E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f>9.208*10^8</f>
-        <v>920800000</v>
+        <v>1.296</v>
+      </c>
+      <c r="F4">
+        <f>1.399*10^7</f>
+        <v>13990000</v>
       </c>
       <c r="G4">
-        <v>7.9723599999999995E-3</v>
+        <f>2.484*10^8</f>
+        <v>248400000</v>
       </c>
       <c r="H4">
-        <v>9.7020200000000004E-3</v>
+        <f>1626860</f>
+        <v>1626860</v>
       </c>
       <c r="I4">
-        <v>1.81142E-3</v>
+        <f>1775350</f>
+        <v>1775350</v>
+      </c>
+      <c r="J4">
+        <f>155112</f>
+        <v>155112</v>
+      </c>
+      <c r="K4">
+        <f>30.1543</f>
+        <v>30.154299999999999</v>
+      </c>
+      <c r="L4">
+        <f>-491.052</f>
+        <v>-491.05200000000002</v>
+      </c>
+      <c r="M4">
+        <f>99466.6</f>
+        <v>99466.6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>12.6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="D5">
+        <f>1496*2</f>
+        <v>2992</v>
+      </c>
+      <c r="E5">
+        <v>1.052</v>
+      </c>
+      <c r="F5">
+        <f>1.275*10^7</f>
+        <v>12750000</v>
+      </c>
+      <c r="G5">
+        <f>2.285*10^8</f>
+        <v>228500000</v>
+      </c>
+      <c r="H5">
+        <f>1365890</f>
+        <v>1365890</v>
+      </c>
+      <c r="I5">
+        <f>1505940</f>
+        <v>1505940</v>
+      </c>
+      <c r="J5">
+        <f>146286</f>
+        <v>146286</v>
+      </c>
+      <c r="K5">
+        <f>28.4596</f>
+        <v>28.459599999999998</v>
+      </c>
+      <c r="L5">
+        <f>-437.16</f>
+        <v>-437.16</v>
+      </c>
+      <c r="M5">
+        <f>88494.2</f>
+        <v>88494.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <f>0.546772*9.81*1000</f>
-        <v>5363.8333200000006</v>
-      </c>
-      <c r="E5">
-        <f>0.0137</f>
-        <v>1.37E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f>1.028*10^9</f>
-        <v>1028000000</v>
-      </c>
-      <c r="G5">
-        <f>0.0010346</f>
-        <v>1.0346000000000001E-3</v>
-      </c>
-      <c r="H5">
-        <f>0.0013822</f>
-        <v>1.3822000000000001E-3</v>
-      </c>
-      <c r="I5">
-        <f>0.000365472</f>
-        <v>3.6547199999999999E-4</v>
+      <c r="B6">
+        <v>12.6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="D6">
+        <f>1361*2</f>
+        <v>2722</v>
+      </c>
+      <c r="E6">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="F6">
+        <f>1.072*10^7</f>
+        <v>10720000</v>
+      </c>
+      <c r="G6">
+        <f>1.996*10^8</f>
+        <v>199600000</v>
+      </c>
+      <c r="H6">
+        <f>1029270</f>
+        <v>1029270</v>
+      </c>
+      <c r="I6">
+        <f>1156640</f>
+        <v>1156640</v>
+      </c>
+      <c r="J6">
+        <f>133049</f>
+        <v>133049</v>
+      </c>
+      <c r="K6">
+        <f>25.9188</f>
+        <v>25.918800000000001</v>
+      </c>
+      <c r="L6">
+        <f>-362.196</f>
+        <v>-362.19600000000003</v>
+      </c>
+      <c r="M6">
+        <f>73238.6</f>
+        <v>73238.600000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <f>0.569341*9.81*1000</f>
-        <v>5585.2352100000007</v>
-      </c>
-      <c r="E6">
-        <f>0.01431</f>
-        <v>1.431E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f>1.077*10^9</f>
-        <v>1077000000</v>
-      </c>
-      <c r="G6">
-        <f>0.00116817</f>
-        <v>1.1681700000000001E-3</v>
-      </c>
-      <c r="H6">
-        <f>0.00153014</f>
-        <v>1.5301399999999999E-3</v>
-      </c>
-      <c r="I6">
-        <f>0.0038058</f>
-        <v>3.8057999999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="A7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>12.6</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="D7">
-        <f>0.593046*9.81*1000</f>
-        <v>5817.7812600000007</v>
+        <f>911*2</f>
+        <v>1822</v>
       </c>
       <c r="E7">
-        <f>0.01496</f>
-        <v>1.4959999999999999E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f>1.13*10^9</f>
-        <v>1130000000</v>
+        <v>2.2179999999999998E-2</v>
+      </c>
+      <c r="F7">
+        <f>5.942*10^6</f>
+        <v>5942000</v>
       </c>
       <c r="G7">
-        <v>1.3203399999999999E-3</v>
+        <f>1.351*10^8</f>
+        <v>135100000</v>
       </c>
       <c r="H7">
-        <v>1.6974E-3</v>
+        <f>310232</f>
+        <v>310232</v>
       </c>
       <c r="I7">
-        <v>3.9645499999999998E-3</v>
+        <f>395391</f>
+        <v>395391</v>
+      </c>
+      <c r="J7">
+        <f>88948.3</f>
+        <v>88948.3</v>
+      </c>
+      <c r="K7">
+        <f>17.4658</f>
+        <v>17.465800000000002</v>
+      </c>
+      <c r="L7">
+        <f xml:space="preserve"> -163.216</f>
+        <v>-163.21600000000001</v>
+      </c>
+      <c r="M7">
+        <f>32811.7</f>
+        <v>32811.699999999997</v>
       </c>
     </row>
   </sheetData>

--- a/struct/WingData.xlsx
+++ b/struct/WingData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanika Dodhia\Documents\University\Fifth Year\Group Project\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{11A4F54A-B987-4996-B6EA-4718F3CC28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A786AB-D200-4D75-A1F8-AABEAC4A65A4}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{11A4F54A-B987-4996-B6EA-4718F3CC28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D330FBDF-B284-4F5F-85D7-784EDE6F9F95}"/>
   <bookViews>
     <workbookView xWindow="4370" yWindow="810" windowWidth="14400" windowHeight="7270" xr2:uid="{7D12F7EF-7898-4DF0-A7D1-8BE1FE745624}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -485,7 +485,8 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>40</v>
+        <f>40*2</f>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>12.6</v>
@@ -536,7 +537,8 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>37</v>
+        <f>37*2</f>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>12.6</v>
@@ -586,7 +588,8 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>35</v>
+        <f>35*2</f>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>12.6</v>
@@ -600,7 +603,7 @@
         <v>3172</v>
       </c>
       <c r="E4">
-        <v>1.296</v>
+        <v>4.2960000000000003</v>
       </c>
       <c r="F4">
         <f>1.399*10^7</f>
@@ -637,7 +640,8 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>33</v>
+        <f>33*2</f>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>12.6</v>
@@ -651,7 +655,7 @@
         <v>2992</v>
       </c>
       <c r="E5">
-        <v>1.052</v>
+        <v>4.0519999999999996</v>
       </c>
       <c r="F5">
         <f>1.275*10^7</f>
@@ -702,7 +706,7 @@
         <v>2722</v>
       </c>
       <c r="E6">
-        <v>0.75509999999999999</v>
+        <v>4.7550999999999997</v>
       </c>
       <c r="F6">
         <f>1.072*10^7</f>
@@ -753,7 +757,7 @@
         <v>1822</v>
       </c>
       <c r="E7">
-        <v>2.2179999999999998E-2</v>
+        <v>4.0221799999999996</v>
       </c>
       <c r="F7">
         <f>5.942*10^6</f>
